--- a/data/tmp/import_paid_checked.xlsx
+++ b/data/tmp/import_paid_checked.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>EXT_APP_ID</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>20221031-2972018</t>
-  </si>
-  <si>
-    <t>FV_ASSIGNED_TO|</t>
   </si>
   <si>
     <t>20221031-7966494</t>
@@ -494,7 +491,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,7 +499,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -542,7 +539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -562,7 +559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -582,7 +579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -602,7 +599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -622,7 +619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -642,7 +639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -662,7 +659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -682,7 +679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -702,7 +699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -722,7 +719,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -742,7 +739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -759,16 +756,13 @@
         <v>1108000.0</v>
       </c>
       <c r="F13"/>
-      <c r="G13" t="s">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
       </c>
       <c r="C14">
         <v>1672909850</v>
@@ -783,9 +777,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -800,12 +794,12 @@
         <v>1185000.0</v>
       </c>
       <c r="F15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -820,12 +814,12 @@
         <v>2469466.0</v>
       </c>
       <c r="F16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -840,15 +834,15 @@
         <v>1349000.0</v>
       </c>
       <c r="F17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
       </c>
       <c r="C18">
         <v>1672909850</v>
@@ -860,12 +854,12 @@
         <v>1396000.0</v>
       </c>
       <c r="F18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>45</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -883,12 +877,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>1672909850</v>
@@ -900,7 +894,7 @@
         <v>1886000.0</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
